--- a/test-case.xlsx
+++ b/test-case.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="81">
   <si>
     <t>Шаги</t>
   </si>
@@ -247,13 +247,25 @@
   </si>
   <si>
     <t>Отправка письма на указанную почту; перенаправление на страницу календаря с неделей, на которую подана заявка; отображение соответсвующих ячеек желтым цветом</t>
+  </si>
+  <si>
+    <t>Тестер</t>
+  </si>
+  <si>
+    <t>Очеев Александр</t>
+  </si>
+  <si>
+    <t>Дата</t>
+  </si>
+  <si>
+    <t>Тетсирование модуля "Календарь аудитории 527"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -282,6 +294,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -341,12 +362,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -390,12 +412,39 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -405,32 +454,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Гиперссылка" xfId="3" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Плохой" xfId="2" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Хороший" xfId="1" builtinId="26" customBuiltin="1"/>
@@ -732,10 +764,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D66"/>
+  <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -747,327 +779,304 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+    </row>
+    <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
+      <c r="B2" s="29"/>
+    </row>
+    <row r="3" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="30">
+        <v>42730</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:4" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-    </row>
-    <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+    </row>
+    <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-    </row>
-    <row r="3" spans="1:4" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-    </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+    </row>
+    <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+    </row>
+    <row r="9" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B9" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C9" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D9" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+    <row r="10" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-    </row>
-    <row r="8" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+    </row>
+    <row r="12" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C12" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
-      <c r="B9" s="11" t="s">
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:4" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="22"/>
+      <c r="B13" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:4" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B14" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C14" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="1:4" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:4" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B15" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C15" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B16" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C16" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="7"/>
-    </row>
-    <row r="13" spans="1:4" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
-      <c r="B13" s="11" t="s">
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" spans="1:4" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="22"/>
+      <c r="B17" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C17" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D13" s="7"/>
-    </row>
-    <row r="14" spans="1:4" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-    </row>
-    <row r="15" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
+      <c r="D17" s="7"/>
+    </row>
+    <row r="18" spans="1:4" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-    </row>
-    <row r="17" spans="1:4" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+    </row>
+    <row r="21" spans="1:4" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B21" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C21" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="1:4" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
-      <c r="B18" s="12" t="s">
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="1:4" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="22"/>
+      <c r="B22" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C22" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19" spans="1:4" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
-      <c r="B19" s="20" t="s">
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="1:4" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="22"/>
+      <c r="B23" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
-      <c r="B20" s="12" t="s">
+    <row r="24" spans="1:4" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="22"/>
+      <c r="B24" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C24" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
+    <row r="25" spans="1:4" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A25" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B25" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C25" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="6"/>
-    </row>
-    <row r="22" spans="1:4" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
-      <c r="B22" s="12" t="s">
+      <c r="D25" s="6"/>
+    </row>
+    <row r="26" spans="1:4" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="22"/>
+      <c r="B26" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C26" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="s">
+    <row r="27" spans="1:4" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A27" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B27" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C27" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
-      <c r="B24" s="12" t="s">
+    <row r="28" spans="1:4" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="22"/>
+      <c r="B28" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C28" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="21" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-    </row>
-    <row r="27" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+    </row>
+    <row r="31" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A31" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B31" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C31" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D27" s="24"/>
-    </row>
-    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B31" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>46</v>
-      </c>
+      <c r="D31" s="19"/>
     </row>
     <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D32" s="3"/>
-    </row>
-    <row r="33" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>56</v>
+        <v>44</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D33" s="3"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="B34" s="12" t="s">
         <v>42</v>
@@ -1075,326 +1084,373 @@
       <c r="C34" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D34" s="3"/>
-    </row>
-    <row r="35" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>59</v>
+    </row>
+    <row r="35" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>46</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D35" s="3"/>
+        <v>46</v>
+      </c>
     </row>
     <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="26"/>
+      <c r="A36" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="B36" s="12" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="D36" s="3"/>
     </row>
-    <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="26"/>
+    <row r="37" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>54</v>
+      </c>
       <c r="B37" s="11" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D37" s="3"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38" s="3"/>
+    </row>
+    <row r="39" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D39" s="3"/>
+    </row>
+    <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="24"/>
+      <c r="B40" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D40" s="3"/>
+    </row>
+    <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="24"/>
+      <c r="B41" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D41" s="3"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B42" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C42" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D38" s="3"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="10" t="s">
+      <c r="D42" s="3"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B43" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C43" s="10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="10" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B44" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C44" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="10" t="s">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B45" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C45" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="10" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="B46" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C46" s="10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A43" s="10" t="s">
+    <row r="47" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A47" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="B47" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C47" s="7" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="15" t="s">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B45" s="15"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
+      <c r="B49" s="25"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="25"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B46" s="12" t="s">
+      <c r="B50" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C50" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D46" s="6"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="15" t="s">
+      <c r="D50" s="6"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B48" s="15"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="15"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="16" t="s">
+      <c r="B52" s="25"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="25"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B53" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="C53" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D49" s="6"/>
-    </row>
-    <row r="50" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="16"/>
-      <c r="B50" s="12" t="s">
+      <c r="D53" s="6"/>
+    </row>
+    <row r="54" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="22"/>
+      <c r="B54" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C54" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D50" s="6"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="6" t="s">
+      <c r="D54" s="6"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B51" s="12" t="s">
+      <c r="B55" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C55" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D51" s="6"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="6"/>
-      <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D53" s="6"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="15" t="s">
+      <c r="D55" s="6"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="6"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D57" s="6"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B54" s="15"/>
-      <c r="C54" s="15"/>
-      <c r="D54" s="10"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="16" t="s">
+      <c r="B58" s="25"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="10"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="9" t="s">
+      <c r="B59" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C55" s="9" t="s">
+      <c r="C59" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D55" s="10"/>
-    </row>
-    <row r="56" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A56" s="16"/>
-      <c r="B56" s="14" t="s">
+      <c r="D59" s="10"/>
+    </row>
+    <row r="60" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A60" s="22"/>
+      <c r="B60" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C60" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D56" s="10"/>
-    </row>
-    <row r="57" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="7" t="s">
+      <c r="D60" s="10"/>
+    </row>
+    <row r="61" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B57" s="12" t="s">
+      <c r="B61" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C61" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D57" s="10"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="7" t="s">
+      <c r="D61" s="10"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B58" s="12" t="s">
+      <c r="B62" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C62" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D58" s="10"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="10" t="s">
+      <c r="D62" s="10"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B59" s="13" t="s">
+      <c r="B63" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C59" s="10" t="s">
+      <c r="C63" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D59" s="10"/>
-    </row>
-    <row r="60" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="10" t="s">
+      <c r="D63" s="10"/>
+    </row>
+    <row r="64" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B60" s="12" t="s">
+      <c r="B64" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C60" s="6" t="s">
+      <c r="C64" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D60" s="10"/>
-    </row>
-    <row r="61" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="10" t="s">
+      <c r="D64" s="10"/>
+    </row>
+    <row r="65" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B61" s="12" t="s">
+      <c r="B65" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C61" s="6" t="s">
+      <c r="C65" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D61" s="10"/>
-    </row>
-    <row r="62" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="10" t="s">
+      <c r="D65" s="10"/>
+    </row>
+    <row r="66" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B62" s="12" t="s">
+      <c r="B66" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C62" s="6" t="s">
+      <c r="C66" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D62" s="10"/>
-    </row>
-    <row r="63" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="10" t="s">
+      <c r="D66" s="10"/>
+    </row>
+    <row r="67" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B63" s="12" t="s">
+      <c r="B67" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C63" s="6" t="s">
+      <c r="C67" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D63" s="10"/>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="15" t="s">
+      <c r="D67" s="10"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B65" s="15"/>
-      <c r="C65" s="15"/>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="16" t="s">
+      <c r="B69" s="25"/>
+      <c r="C69" s="25"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="B66" s="16"/>
-      <c r="C66" s="16"/>
+      <c r="B70" s="22"/>
+      <c r="C70" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="A66:C66"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A35:A37"/>
+  <mergeCells count="19">
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A6:D6"/>
     <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A49:D49"/>
     <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A53:A54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/test-case.xlsx
+++ b/test-case.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="82">
   <si>
     <t>Шаги</t>
   </si>
@@ -259,6 +259,9 @@
   </si>
   <si>
     <t>Тетсирование модуля "Календарь аудитории 527"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Указание времени конца таким же как время начала или раньше </t>
   </si>
 </sst>
 </file>
@@ -368,7 +371,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -436,15 +439,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -453,12 +465,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -764,10 +770,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D70"/>
+  <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:D11"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -779,16 +785,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
     </row>
     <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
-      <c r="B2" s="29"/>
+      <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
@@ -802,7 +808,7 @@
       <c r="A4" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="B4" s="30">
+      <c r="B4" s="24">
         <v>42730</v>
       </c>
     </row>
@@ -816,12 +822,12 @@
       <c r="D6" s="25"/>
     </row>
     <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
@@ -858,7 +864,7 @@
       <c r="D11" s="25"/>
     </row>
     <row r="12" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="26" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="12" t="s">
@@ -870,7 +876,7 @@
       <c r="D12" s="6"/>
     </row>
     <row r="13" spans="1:4" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="11" t="s">
         <v>9</v>
       </c>
@@ -904,7 +910,7 @@
       <c r="D15" s="6"/>
     </row>
     <row r="16" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="26" t="s">
         <v>70</v>
       </c>
       <c r="B16" s="21" t="s">
@@ -916,7 +922,7 @@
       <c r="D16" s="7"/>
     </row>
     <row r="17" spans="1:4" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
+      <c r="A17" s="26"/>
       <c r="B17" s="11" t="s">
         <v>72</v>
       </c>
@@ -938,15 +944,15 @@
       <c r="D19" s="4"/>
     </row>
     <row r="20" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
     </row>
     <row r="21" spans="1:4" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="26" t="s">
         <v>29</v>
       </c>
       <c r="B21" s="12" t="s">
@@ -958,7 +964,7 @@
       <c r="D21" s="4"/>
     </row>
     <row r="22" spans="1:4" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="22"/>
+      <c r="A22" s="26"/>
       <c r="B22" s="12" t="s">
         <v>30</v>
       </c>
@@ -968,7 +974,7 @@
       <c r="D22" s="4"/>
     </row>
     <row r="23" spans="1:4" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="22"/>
+      <c r="A23" s="26"/>
       <c r="B23" s="16" t="s">
         <v>32</v>
       </c>
@@ -977,7 +983,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="22"/>
+      <c r="A24" s="26"/>
       <c r="B24" s="12" t="s">
         <v>34</v>
       </c>
@@ -986,7 +992,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="26" t="s">
         <v>35</v>
       </c>
       <c r="B25" s="12" t="s">
@@ -998,7 +1004,7 @@
       <c r="D25" s="6"/>
     </row>
     <row r="26" spans="1:4" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="22"/>
+      <c r="A26" s="26"/>
       <c r="B26" s="12" t="s">
         <v>34</v>
       </c>
@@ -1007,7 +1013,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="26" t="s">
         <v>37</v>
       </c>
       <c r="B27" s="12" t="s">
@@ -1018,7 +1024,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="22"/>
+      <c r="A28" s="26"/>
       <c r="B28" s="12" t="s">
         <v>38</v>
       </c>
@@ -1033,12 +1039,12 @@
       <c r="D29" s="6"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
     </row>
     <row r="31" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
@@ -1075,132 +1081,132 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
-        <v>75</v>
+      <c r="A34" s="22" t="s">
+        <v>81</v>
       </c>
       <c r="B34" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="22" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B35" s="18" t="s">
+      <c r="B36" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C36" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
+    <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B37" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C37" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D36" s="3"/>
-    </row>
-    <row r="37" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
+      <c r="D37" s="3"/>
+    </row>
+    <row r="38" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B38" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C38" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D37" s="3"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
+      <c r="D38" s="3"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B39" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C39" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D38" s="3"/>
-    </row>
-    <row r="39" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="24" t="s">
+      <c r="D39" s="3"/>
+    </row>
+    <row r="40" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B40" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C40" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D39" s="3"/>
-    </row>
-    <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="24"/>
-      <c r="B40" s="12" t="s">
+      <c r="D40" s="3"/>
+    </row>
+    <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="28"/>
+      <c r="B41" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C41" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D40" s="3"/>
-    </row>
-    <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="24"/>
-      <c r="B41" s="11" t="s">
+      <c r="D41" s="3"/>
+    </row>
+    <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="28"/>
+      <c r="B42" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C42" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D41" s="3"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
+      <c r="D42" s="3"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="B43" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C43" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D42" s="3"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B43" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>42</v>
-      </c>
+      <c r="D43" s="3"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B45" s="12" t="s">
         <v>43</v>
@@ -1211,178 +1217,177 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B46" s="12" t="s">
+      <c r="B47" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C47" s="10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A47" s="10" t="s">
+    <row r="48" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A48" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="B47" s="12" t="s">
+      <c r="B48" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C48" s="7" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="25" t="s">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B49" s="25"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="25"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="6" t="s">
+      <c r="B50" s="25"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="25"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B50" s="12" t="s">
+      <c r="B51" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C51" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D50" s="6"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="25" t="s">
+      <c r="D51" s="6"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B52" s="25"/>
-      <c r="C52" s="25"/>
-      <c r="D52" s="25"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="22" t="s">
+      <c r="B53" s="25"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="25"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="B54" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C53" s="9" t="s">
+      <c r="C54" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D53" s="6"/>
-    </row>
-    <row r="54" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="22"/>
-      <c r="B54" s="12" t="s">
+      <c r="D54" s="6"/>
+    </row>
+    <row r="55" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="26"/>
+      <c r="B55" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="C55" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D54" s="6"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="6" t="s">
+      <c r="D55" s="6"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B55" s="12" t="s">
+      <c r="B56" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C55" s="6" t="s">
+      <c r="C56" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D55" s="6"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="6"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="6"/>
       <c r="D56" s="6"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="6"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
       <c r="D57" s="6"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="25" t="s">
+      <c r="D58" s="6"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B58" s="25"/>
-      <c r="C58" s="25"/>
-      <c r="D58" s="10"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="22" t="s">
+      <c r="B59" s="25"/>
+      <c r="C59" s="25"/>
+      <c r="D59" s="10"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B59" s="9" t="s">
+      <c r="B60" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C59" s="9" t="s">
+      <c r="C60" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D59" s="10"/>
-    </row>
-    <row r="60" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A60" s="22"/>
-      <c r="B60" s="14" t="s">
+      <c r="D60" s="10"/>
+    </row>
+    <row r="61" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A61" s="26"/>
+      <c r="B61" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C61" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D60" s="10"/>
-    </row>
-    <row r="61" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="7" t="s">
+      <c r="D61" s="10"/>
+    </row>
+    <row r="62" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B61" s="12" t="s">
+      <c r="B62" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C62" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D61" s="10"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="7" t="s">
+      <c r="D62" s="10"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B62" s="12" t="s">
+      <c r="B63" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C63" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D62" s="10"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="10" t="s">
+      <c r="D63" s="10"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B63" s="13" t="s">
+      <c r="B64" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C63" s="10" t="s">
+      <c r="C64" s="10" t="s">
         <v>20</v>
-      </c>
-      <c r="D63" s="10"/>
-    </row>
-    <row r="64" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B64" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>27</v>
       </c>
       <c r="D64" s="10"/>
     </row>
     <row r="65" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B65" s="12" t="s">
         <v>27</v>
@@ -1394,7 +1399,7 @@
     </row>
     <row r="66" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B66" s="12" t="s">
         <v>27</v>
@@ -1406,7 +1411,7 @@
     </row>
     <row r="67" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B67" s="12" t="s">
         <v>27</v>
@@ -1416,41 +1421,53 @@
       </c>
       <c r="D67" s="10"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="25" t="s">
+    <row r="68" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D68" s="10"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B69" s="25"/>
-      <c r="C69" s="25"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="22" t="s">
+      <c r="B70" s="25"/>
+      <c r="C70" s="25"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="B70" s="22"/>
-      <c r="C70" s="22"/>
+      <c r="B71" s="26"/>
+      <c r="C71" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="A60:A61"/>
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="A71:C71"/>
     <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="A40:A42"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A50:D50"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A20:D20"/>
     <mergeCell ref="A21:A24"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="A53:A54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
